--- a/dataset/positive_renzel.xlsx
+++ b/dataset/positive_renzel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renze\OneDrive\Documents\School\College\Acads\Thesis Development\sentiment-analysis-thesis\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512F8C78-4191-41E5-BF65-34803DC54B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3EEBAA-D623-4193-87E8-A86129A9BD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{8D34EE7C-4638-412A-A478-7D9CEC4CA2E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8D34EE7C-4638-412A-A478-7D9CEC4CA2E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="293">
   <si>
     <t>Sobrang Ganda 🤩🤩🤩 High Quality ang Wallet, Order ako ulit pang regalo. Thank you seller sa pag send nang picture before e ship 🥰 Godbless you and Stay safe always 🙏🤍🤍🤍🤍Sobrang Ganda 🤩🤩🤩 High Quality ang Wallet, Order ako ulit pang regalo. Thank you seller sa pag send nang picture before</t>
   </si>
@@ -704,6 +704,213 @@
   </si>
   <si>
     <t>Superb quality thank you! I hope the outer layer won't peal.💖 Will definitely order again soon.❤</t>
+  </si>
+  <si>
+    <t>Super ganda and budol is real🤣🥰💖 Will order again next time, buti nlng nakita kita sa tiktok seagloca💖🥰</t>
+  </si>
+  <si>
+    <t>super fast shipping. 1 day delivery. ordered 9.9, received 9.10. super ganda ng quality and i only got it for a much cheaper price so worth it talaga. highly recommended.</t>
+  </si>
+  <si>
+    <t>Vey nice ng wallet bilis pa dumating. Will order again sa shop na to. And bait din ng rider. Thank you 😊 Thank you 😊 Thank you 😊 Thank you 😊 Thank you 😊 Thank you 😊 Thank you 😊 Thank you 😊</t>
+  </si>
+  <si>
+    <t>ang gandaaaaa 🥰❤️ kakainlove.</t>
+  </si>
+  <si>
+    <t>so cute talaga. I have been eyeing this wallet for a long time. I got this on a lower price during 9.9. The product was fine and arrived safely. Thank you seller!</t>
+  </si>
+  <si>
+    <t>SUPER DUPER WORTH ITTTTTT!! U GUYS SHOULD BUY THIS WALLET... GRABE SUPER GANDA NG QUALITY AND LAKAS MAKA SOSYAL!!! 😍👌❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>Tiktok budol na naman. Hahaha! Thank you Thank you Thank you Thank you Thank you Thank you Thank you Thank you Thank you Thank you Thank you Thank you Thank you Thank you Thank you Thank you Thank you Thank you Thank you Thank you Thank you Thank you Thank you Thank you 😍😍😍</t>
+  </si>
+  <si>
+    <t>Super gandaaaa nang quality unexpected. Worth it yung price niregalo ko nga lang HAHAH, nakakapanghinayang. Anw, Thank youuu seller!</t>
+  </si>
+  <si>
+    <t>Order recieved today!! Thank you so much poooooo. Order to ng mga kawork ko dahil nakita nila yung wallet ko kaya ayun. Maganda talaga sya, lakas makamayaman. Hahaha</t>
+  </si>
+  <si>
+    <t>So so like it !!! So so like it !!! So so like it !!! So so like it !!! So so like it !!! So so like it !!! So so like it !!! So so like it !!!</t>
+  </si>
+  <si>
+    <t>Super nice, worth it!</t>
+  </si>
+  <si>
+    <t>very nice.. nagustuhan ko po.. thank you seller.. mabait rin ang rider</t>
+  </si>
+  <si>
+    <t>Thanknyou seller sa freeboes, received mynordeeeer nth timebordering heeere ng powder. Thanmynouuut hank youuuuu</t>
+  </si>
+  <si>
+    <t>Sulit sa price!!!! Thank you seller and rider 💚💚💚💖💖💖</t>
+  </si>
+  <si>
+    <t>Omg! I really love it. Super nice quality. The item arrived immediately than expected. Thank you so much for this seller. I will surely order again.</t>
+  </si>
+  <si>
+    <t>Super ganda. High quality. Super bilis pa ng shipping. #tiktokbudol HAHAHAHAHAHHAHAHAAHAHAH kasalanan mo to tiktok</t>
+  </si>
+  <si>
+    <t>Nice quality! super cute also the color and very spacious. Thank you till our next transaction! Nice quality! super cute also the color and very spacious. Thank you till our next transaction!</t>
+  </si>
+  <si>
+    <t>Excellent quality Very accommodating seller Well-packaged Item shipped immediately Will order again Exceeded my expectation</t>
+  </si>
+  <si>
+    <t>Ordered on 8/25; Received on 8/27 ❤️ Tiktok made me buy this! And it is worth it!! 😍😍 It’s very handy and nakapaka-elegant tignan! Ginamit ko siya agad agad and I so love it! It’s a FAVORITE! Planning to buy more as gifts on Christmas! 🥰🥰🥰</t>
+  </si>
+  <si>
+    <t>The item is soooo good. Exceeded my expectation! Plus so many vouchers. They got some good deals. Highly recommended! Will buy again from this shop soon. Suki na ko dito for sure. Thank you so muuuch!</t>
+  </si>
+  <si>
+    <t>Satisfied customer 🥰♥️♥️♥️</t>
+  </si>
+  <si>
+    <t>Excellent quality. There are no damages on the product. Worth the price. Well packaged. Item shipped in the right timeline.</t>
+  </si>
+  <si>
+    <t>Super I liked 😍❤️❤️❤️.. so beautiful the item. I also share this to my friends. Thanks so much shopee, thanks so seller and thanks also the Kuya Rider. God bless your business 🙏🙏</t>
+  </si>
+  <si>
+    <t>Great quality, doesn't feel cheap at all, smooth leather. Here's a full length video of the product closeup</t>
+  </si>
+  <si>
+    <t>so pretty thank you so much 🥰</t>
+  </si>
+  <si>
+    <t>Ang handy niya at ganda ng quality. Pwede siya for everyday. Mabilis din dumating saakin at well packed siya. Thankyou po for the good transaction!</t>
+  </si>
+  <si>
+    <t>Super nice! Exceeded my expectations. Ang ganda ng quality ng wallet and pati yung hardware na ginamit. I recommend this. Thanks!</t>
+  </si>
+  <si>
+    <t>I really love it!!!! Sobrang selan ko pag dating sa wallet, pero eto sobrang nagustuhan ko. 🤍🤍 5 STARS to sakin, pede din sya panregalo. Smooth yung sa zipper nya, isang kamay lang kasi gamit ko kaya nahirapan ako hehe 😅 Pero overall 💯💯💯🔥🔥🔥</t>
+  </si>
+  <si>
+    <t>Ang ganda niya mga mare 😍😍😍 Super nice ng quality niya ❤ Akala ko matatagalan bago siya dumating 👌 Salamat #SEAGLOCA PH ❤❤❤ Will order again soon. ❤❤❤❤❤</t>
+  </si>
+  <si>
+    <t>Thank you seller and rider!! It was smooth transactions, seller send the photos and answer all my queries. I will surely order again. Satisfied customer here, god bless to your business.</t>
+  </si>
+  <si>
+    <t>Napakagandang quality naman neto for the price. Excellent condition. Super satisfied customer here! Will definitely order again but in another color. More sales to come! Thank yooouuuuu!!</t>
+  </si>
+  <si>
+    <t>Super gandaaaaaaa. Malambot ang texture. Mukang sosyalin lalo na ung black. Nagustuhan din ng sister ko. Mabilis din delivery. Thank youuuuuu ♥️♥️♥️♥️♥️</t>
+  </si>
+  <si>
+    <t>Thank u so much po subra nagustuhan q Ang gandA tlga thank u seller at sa shopee 🌟🌟🌟🌟🌟🌟🌟 thank u din po sa rider na napaka bait</t>
+  </si>
+  <si>
+    <t>ETO DIN ANG PRETTY NG WALLETTT. RECOMMEND THIS WALLET TO U GUYS SULIT DIN MEDYO MAHAL SYA PERO NAGANDA QUALITY. ❤️❤️❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>• napakasaya ko sa purchase na 'to grabe! super worth it and super ganda ng wallet!! 💗 • mabilis magship si seller tho hindi ko nagustuhan yung pagkakabalot ng item,,, • super spacious ng wallet! maraming cards ang pwede ilagay and may secret compartment,, and the coin purse 💗💗💗 • very recommend</t>
+  </si>
+  <si>
+    <t>Super ganda super classy super elegant. Though di sya matigas na leather. Pero wow ang ganda lang sa personal. Malambot at super handy. Nakita ko lang sa tiktok to now nasa akin na 😂.</t>
+  </si>
+  <si>
+    <t>Arrived in good condition, correct variant, no damage. The wallet itself is sooo pretty in pink. I love it. Thank you seller! 👍</t>
+  </si>
+  <si>
+    <t>Thank you shoppe, thank you seller and thank kuya rider👍👍👍👍👍👍Ang Ganda ng wallet🤩🤩🤩🤩🤩🤩🤩🤩👌👌👌👌👌👌👌👌</t>
+  </si>
+  <si>
+    <t>Thank you so much seller 🥰😘❤ this is my second time to ordered your super cute and nice design of wallet🥰, i really, really loved it❤💚. And also i really appreciated to informed me always. Thanks again 👍😘❤..</t>
+  </si>
+  <si>
+    <t>The item is so gorgeous, package is securely packed and the delivery not took too long. Worth of penny! Thank you seller. 👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍👍</t>
+  </si>
+  <si>
+    <t>Thank you seller! ☺️ Nakita ko lang siya sa tiktok and totoo nga maganda! ☺️☺️☺️☺️❤️❤️ Budol pa more 😂😂😂 ang bilis lang din dumating ☺️</t>
+  </si>
+  <si>
+    <t>Order received! Tiktok made me buy it, legit, super ganda nya. Lakas makaksosyalsa murang halaga 😁 dahil nainggit mga kaworkmate ko, napaorder ulit ako ng lima! Thank you seller ☺️</t>
+  </si>
+  <si>
+    <t>Super ganda😍 Pati quality 😍 Thanks seller ang bilis pti ng shipping 1day lng dumating agad 😊 Will order again❣</t>
+  </si>
+  <si>
+    <t>Very nice ❤️</t>
+  </si>
+  <si>
+    <t>the quality is perfect!! wrapped and packaged so nice. was shipped and delivered so fast as well! will order again next time!</t>
+  </si>
+  <si>
+    <t>Ang Ganda Ganda Ganda.. D ako nagsisi dahil sa tiktok nakita ko tong wallet nato.. Super love it. Slamat po.. Uulit ako gusto ko Yung mga bags nman next time.. 💖😍😍😍😍Salamat po</t>
+  </si>
+  <si>
+    <t>ANG GANDA POOO HEHE NAGUSTUHAN DIN NG FRIEND KOOO</t>
+  </si>
+  <si>
+    <t>classy tapos maganda ang quality 😍❤️</t>
+  </si>
+  <si>
+    <t>Got it!!! 🥰 Super nice and classy 💯❤️‍🔥 I really love it!!! 🤩💕 THANK YOU SO MUCH, SELLER!!!</t>
+  </si>
+  <si>
+    <t>Finally!! Dumating na kahapon 😍 suuper inlove sa kulay... ang gandaaa 🥰 Thank you! May freebies pang fake tattoo ang cute 🥰 Thank you nabudol niyo ko 😁</t>
+  </si>
+  <si>
+    <t>Thank you so much seller! Ang ganda ng wallet looks classy hehe. Finally got my wallet na nais ko hehe. Thank you again 😊😊😊</t>
+  </si>
+  <si>
+    <t>ganda ganda gandaaa whaaaa!!!! 😭👨‍👦😭✅😂🎉🤗😂🔑🙄😴🫕😴😳😂😅💰✅💰✅🙆🎉🙆🎉〽️🎉😴😅🥴😟😂😟😂✅😂🎉〽️🤌〽️🤌💰👨‍👦💰🐚💰✅😭‼️😾😭😾☺️🥺😭🥺😭🥺😭🥺😭😭😾😭😾😭🥰😂🤌😂🤌🥴😴🫕🥴🫕🥴🤗😂🤗👨‍👦😂😂🤌</t>
+  </si>
+  <si>
+    <t>super ganda!! worth it 200+ nyo dito. maraming lagayan ids &amp; card. kasya yung bills &amp; meron din lagayan for coins. aah will buy again! sana tumagal sakin &lt;33</t>
+  </si>
+  <si>
+    <t>Super quality ng wallet! Tapos afforfable pa…</t>
+  </si>
+  <si>
+    <t>I love it!!! Very cute design and maraming compartment.</t>
+  </si>
+  <si>
+    <t>Very cute design and maraming compartment.</t>
+  </si>
+  <si>
+    <t>Ang gandaaa, matibay din. Sakto lang yung size. Worth the buy 🤍</t>
+  </si>
+  <si>
+    <t>Love it . thank you so much 😍😍😍🥰</t>
+  </si>
+  <si>
+    <t>Satisfied customer here! Maganda naman yung quality especially for the price. Mabilis din sumagot si seller. On time din naman yung delivery.</t>
+  </si>
+  <si>
+    <t>Ganda😻❤️</t>
+  </si>
+  <si>
+    <t>It looks so sleek and cute at the same time! Super worth the prize the quality is unexpected! 🥰 not so secured packaging nevertheless it arrived just fine naman 🥰 to more small wallets</t>
+  </si>
+  <si>
+    <t>SUPER LOVE IT!!! 😍🥰🥰🥰</t>
+  </si>
+  <si>
+    <t>Maganda ang quality! Nabili ko ito nung 9.9 sale! Thank you so much! 👍</t>
+  </si>
+  <si>
+    <t>Super happy with my purchase.no damage Ang ganddddaaaa promise. Elegant tignan. Thank you seller mabilis dumating. I order it frim then dumting ng sunday.super love it thabk you</t>
+  </si>
+  <si>
+    <t>I really like this kind of wallet❤️ Super cute🥰 Kahit na maliit madami syang pwedeng lagyan at hindi sya bulky that's why nagustuhan ko😍 And the seller also send picture of it before ship out as my request. Thank you!😇</t>
+  </si>
+  <si>
+    <t>Worth the money, fast shipping 🤩 very satisfied</t>
+  </si>
+  <si>
+    <t>After a long period of time nakahanap din ng short wallet na pasok sa type ko 💗 kasyang-kasya lahat ng cards ko 😊. Feel ko naman tatagal tong wallet na ito sa akin 😍</t>
+  </si>
+  <si>
+    <t>SUPER NICE QUALITY SUPER NICE QUALITY SUPER NICE QUALITY SUPER NICE QUALITY TIKTOK MADE ME BUY IT TIKTOK MADE ME BUY IT ❤️❤️</t>
+  </si>
+  <si>
+    <t>Overall ganda 😍😍</t>
   </si>
 </sst>
 </file>
@@ -1064,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACC98CB-FB4C-4B88-8E87-BE401ABE0E9C}">
-  <dimension ref="A1:A226"/>
+  <dimension ref="A1:A312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="C218" sqref="C218"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="G305" sqref="G305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,6 +2409,403 @@
         <v>223</v>
       </c>
     </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="1"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="2"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="1"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="2"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="1"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="1"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="1"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
